--- a/output/fit_clients/fit_round_44.xlsx
+++ b/output/fit_clients/fit_round_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>10105535762.21976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004218953181956113</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.477419305970051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9508661029667846</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.477419305970051</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6986135214.812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005783399150279543</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8496702410154544</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.976654116158924</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.212431288306523</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.976654116158924</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6226169466.321879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002985873013353234</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.779797915794535</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.964902121642888</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.779797915794535</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4149338123.277891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004843840793505516</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.991880545438399</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8327806205167412</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.991880545438399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5095212870.996025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002539773134408068</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.651400212440971</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8487128376614123</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.651400212440971</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8998837776.14905</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001009273231381284</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.521648186076415</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9476211356460693</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.521648186076415</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6394561605.431802</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002483121200564327</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.731216608972344</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9541436341295219</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.731216608972344</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>7019136520.288394</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003851037292626342</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.038031182411724</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9222435839153019</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.038031182411724</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3916103184.441264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004369760863853264</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.125704257391926</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9454223029264287</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.125704257391926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5157656383.914922</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001349442167615851</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.816252922229973</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7763253382336577</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.816252922229973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6514906373.403051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001802465220752022</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.262250522355165</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.015981441918223</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.262250522355165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4144600057.176589</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003224027055901396</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.839479260924521</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.017962502553888</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.839479260924521</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9030204424.298723</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002288582534621194</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.32591891447989</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8903226520715118</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.32591891447989</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7112945597.605452</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003938365949230703</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.262914770908532</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9573491127617773</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.262914770908532</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5307050615.070775</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003729200856372397</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.223803487429705</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8960919594249614</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.223803487429705</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4909787703.279835</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003232414249042369</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.741858714812325</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9552249355675324</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.741858714812325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7234548879.839339</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009079805784562709</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8669526354642103</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.282271663342676</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.277810846617873</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.282271663342676</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3697120652.564189</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002215338787747282</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.877232809347358</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8868092782628062</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.877232809347358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4685402993.46407</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001424128529763706</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.759818446533595</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8377739394127915</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.759818446533595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6695127004.755548</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004253866085196071</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.036953973773759</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8414129680299606</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.036953973773759</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4408442126.93755</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005251123920910207</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.926425822357899</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8560573685570444</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.926425822357899</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8588194177.104428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001537336604009575</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.591041823226872</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8450658624137419</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.591041823226872</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5216965079.35217</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003105536523074437</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.442013007334472</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9881417357955521</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.442013007334472</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6486113709.880234</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002890182635603685</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.613002772360688</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9366641804414697</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.613002772360688</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5864178232.136898</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001333141518357865</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.588337507843234</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.797306740545432</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.588337507843234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8506013996.030107</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003853507378366748</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.026366029312735</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9199569676795608</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.026366029312735</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7431280685.610302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004341175213186224</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9507000474155493</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.181604932510584</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.275528671713176</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.181604932510584</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5320714378.6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001527798479266738</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.440278860315248</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9765825399012031</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.440278860315248</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7889983345.169469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004124641777937424</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.024946968607823</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8903133071259459</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.024946968607823</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7915336725.569147</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.00272935081680027</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2729303440318236</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.075607201848011</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6088643621377126</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.075607201848011</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3862884171.955115</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001232399489508242</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.622138577311714</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9399558265771298</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.622138577311714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5334466719.608572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002446614635259778</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.429134166380456</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8352859915662382</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.429134166380456</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6013942564.081674</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003550106787534236</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7050863932574022</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.787647617737139</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.966135049550079</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-4.787647617737139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5503118676.499022</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001674948246830695</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.546585779819603</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9443473978271075</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.546585779819603</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5240583178.935505</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003499329284973238</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.151406778864978</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.4522670168666454</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.151406778864978</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4449037333.328327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004472353057744564</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.175663877520927</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.005728124689083</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.175663877520927</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4047042667.912818</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00454959179920598</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7889880241254095</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.789303821774817</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.135195906473407</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.789303821774817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4721119687.128052</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002647697103821661</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.529549439306896</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8572429885094973</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.529549439306896</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5606101712.252301</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003351072250931894</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.525362271045687</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.990228910899524</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.525362271045687</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7070398715.770905</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001038753306546281</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.573651878305808</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9300280474488158</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.573651878305808</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5933896730.415068</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003891462911255751</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.2667101996231316</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.232836102585041</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.6377724264578609</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.232836102585041</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4954492314.287471</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003798786384257774</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.454699322707671</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.343090767086651</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.454699322707671</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6801435913.351517</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001438877078542412</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.991280941173801</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9244255483036389</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.991280941173801</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3751504025.914251</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001312843983972467</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.617863313884467</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.959520614451923</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.617863313884467</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11252265002.74503</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004455441215745797</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.027437113242753</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8101711845113102</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.027437113242753</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>10163839759.45958</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002087830240470197</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.252209463127062</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9041292277948529</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.252209463127062</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5216587253.4205</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00289773640328199</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.218009365014766</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9649107442126749</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.218009365014766</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4631483857.738029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005661939818424785</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.286919511453232</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.885663239005163</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.286919511453232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8071591199.66713</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003616996030630322</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.402971873589054</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.042080250123377</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.402971873589054</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5459788471.70133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004467722749593699</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>11</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.3996000153970058</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.938894973549383</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.7828798189217195</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.938894973549383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6664131288.727053</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002125815159361371</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7707227794283438</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.087428920169487</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.070688220325606</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.087428920169487</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6806567436.269187</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003012813621140595</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.169851438747735</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.914338256570158</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.169851438747735</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5424174530.833609</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005026993942221166</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.791145022004362</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8315401126392777</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.791145022004362</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8418425234.590994</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004121917123424651</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.862211384910704</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8856444506871218</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.862211384910704</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4753747244.685355</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002640206355372253</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.588373690699991</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9266921603753536</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.588373690699991</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8264507799.92367</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003063920027264316</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7914302855822687</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.292543762504247</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.071987923390215</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.292543762504247</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6194104161.104136</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002104922057903124</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.507630763182377</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7829244955881174</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.507630763182377</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>4842268609.01559</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004303707809917839</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.964640674370014</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8739203071092635</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.964640674370014</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5516836240.944915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003957022367908131</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.213126993069415</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8463356984836122</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.213126993069415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7090467292.121439</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003805735264313184</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.67417559798909</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.951942387335092</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.67417559798909</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6295208337.696441</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00371150311686495</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.583588525026286</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8560184919009435</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.583588525026286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6853285715.809321</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004116207200573463</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.2230496738245979</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.833336276439064</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.4491298253700244</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.833336276439064</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4369287234.515056</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005221734212779836</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.129442681445581</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9267101164837701</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.129442681445581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6042337019.572117</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005111825650471749</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1850977423548533</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.785642538666158</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.4978387082831607</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.785642538666158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6623367857.232558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003610804946620857</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.371350198122875</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9120865536853704</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.371350198122875</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4814305652.657626</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005829630051769409</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.721157352646471</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4.728626852934868</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.098769711603905</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-4.728626852934868</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7338584693.252461</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002553814705912547</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.869070514302364</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7268919888442255</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.869070514302364</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4751401032.07262</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001094333435299472</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.895503570706251</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9850195739034594</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.895503570706251</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5400840980.621352</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003379667339665043</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.986677371252494</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9177553138786603</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.986677371252494</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5065171137.993519</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003762206436611843</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.775734366540585</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8203418384050332</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.775734366540585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6729937924.470688</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002362216477051673</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.331960696914858</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.057772043328964</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.331960696914858</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5156549070.77408</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00119628548018449</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.316432041041137</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9476123557536776</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.316432041041137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5709864069.746798</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003321633790156942</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.271206336122799</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8798255497373898</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.271206336122799</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7484839240.730474</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00374990356204584</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>11</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.8951411763608543</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.95423379606011</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.180342326120325</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.95423379606011</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6490922949.554881</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002823220075020995</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1706239188232319</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.960351000725642</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.316639572325201</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.960351000725642</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5728059878.495442</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005921122673251763</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.36969592711072</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.024093938101041</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.36969592711072</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6698885496.129982</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003253294761462785</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.907786319230639</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8937663642662063</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.907786319230639</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8315064457.46525</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002512442204452476</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.745784148703478</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.964902121642888</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.745784148703478</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>4952880141.589149</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002206628796117372</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.299537096948614</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9659369273128586</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.299537096948614</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5275114813.437634</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004909416536531643</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.566723031069353</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9964976034323096</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.566723031069353</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6343116763.727118</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005602204161100641</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.631774364602853</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9255775262618656</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.631774364602853</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9202516017.66651</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003069464136815279</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.415131558011615</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7789375308452975</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.415131558011615</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5831149283.165017</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004639426764365303</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3487754009910055</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.84437907998651</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.7112688011594415</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.84437907998651</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4471342037.710603</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002439639073559004</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.69729624015219</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8891249979767182</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.69729624015219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8620475874.28702</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002655140844214299</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.134752466614501</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.966996437729013</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.134752466614501</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4254333274.773223</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001184157702778238</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.550883903229928</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9431918814217731</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.550883903229928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7915826128.599463</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004703485172297103</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.935707646661976</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8253196859240219</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.935707646661976</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5348487472.343041</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003344982767349646</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.10783962139142</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9244345484146483</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.10783962139142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7076413642.128557</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002775546664107161</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.931760094890933</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9221984755693232</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.931760094890933</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5897343151.755477</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003948966375278387</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.507822608997569</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8500261662163737</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.507822608997569</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4341915243.855957</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003284884509353879</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.408657488665713</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.041049203921955</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.408657488665713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7057893092.595659</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001507603047361854</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.0408275407125658</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.019593378774649</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.3800369604209917</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.019593378774649</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6977781275.007051</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001457706440662047</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2122184685745691</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.693297465442693</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.6224665914539672</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-4.693297465442693</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5953638754.284366</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002920632826926251</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.269058595249232</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9132176544470446</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.269058595249232</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8051710999.642794</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00291676633770721</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.807536636563122</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9097835542968445</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.807536636563122</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6678508934.989855</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005525195598055539</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.69379041016844</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9075572210276028</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.69379041016844</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9249155753.461319</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004246733957586696</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.369357342543943</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8786609328613091</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.369357342543943</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2664655260.966097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.003832283825115238</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.805326849783693</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8727192104598254</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.805326849783693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5821778676.663288</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00337554494412211</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.266860209954639</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8253398474967443</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.266860209954639</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6387327470.094736</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001603503718541718</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5229841119814373</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.28700260256362</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8809791831017251</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.28700260256362</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_44.xlsx
+++ b/output/fit_clients/fit_round_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>10105535762.21976</v>
+        <v>2391353008.854101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004218953181956113</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.09804008465436589</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03752578144500451</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1195676552.610177</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6986135214.812</v>
+        <v>2480854378.907124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005783399150279543</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1837351293616513</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04000351863239215</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
+      <c r="J3" t="n">
+        <v>1240427303.840249</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6226169466.321879</v>
+        <v>4987199076.096646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002985873013353234</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+        <v>0.1128765671402224</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03479300152811286</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2493599622.015727</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4149338123.277891</v>
+        <v>4057210446.070759</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004843840793505516</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09826636316959879</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04051416303045651</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2028605222.833764</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5095212870.996025</v>
+        <v>1982709197.385097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002539773134408068</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.1163878907346514</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05099695482634484</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>991354630.0093656</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8998837776.14905</v>
+        <v>2902079051.030556</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001009273231381284</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
+        <v>0.09215423010943091</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04233806704257496</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1451039499.667623</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6394561605.431802</v>
+        <v>3731436960.51477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002483121200564327</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11</v>
+        <v>0.1587509676249692</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02692360484013896</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1865718612.38054</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>7019136520.288394</v>
+        <v>1668299430.917897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003851037292626342</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1398422022903488</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02916313626464691</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>834149787.9279118</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3916103184.441264</v>
+        <v>4083760161.958938</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004369760863853264</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1816236722442605</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03572423046107711</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2041880109.204442</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5157656383.914922</v>
+        <v>3872931003.055129</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001349442167615851</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1571447258654858</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0317330358218201</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1936465505.195316</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6514906373.403051</v>
+        <v>2499789285.129393</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001802465220752022</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13</v>
+        <v>0.1956508336345727</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.048081803231808</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1249894614.623486</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4144600057.176589</v>
+        <v>4471622458.517303</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003224027055901396</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
+        <v>0.06732016346406605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02659851913012662</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2235811260.075513</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9030204424.298723</v>
+        <v>3226818558.434494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002288582534621194</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1703878884223467</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04155582868143059</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1613409297.102775</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7112945597.605452</v>
+        <v>1282100459.570341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003938365949230703</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>13</v>
+        <v>0.09092791947886937</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03317146422763676</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>641050265.7349921</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5307050615.070775</v>
+        <v>2017565753.766186</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003729200856372397</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14</v>
+        <v>0.0711168167089492</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03424107201885498</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1008782950.650464</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4909787703.279835</v>
+        <v>5137564460.103302</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003232414249042369</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+        <v>0.1737663377006098</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0371984171834351</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2568782208.314178</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7234548879.839339</v>
+        <v>4015553728.979078</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009079805784562709</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12</v>
+        <v>0.1614475971669956</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02568226706471775</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2007776821.069964</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3697120652.564189</v>
+        <v>1369593485.054013</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002215338787747282</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1848540885683296</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02388557926992424</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>684796861.6065769</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4685402993.46407</v>
+        <v>2085412459.803895</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001424128529763706</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1086932956040343</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02714751599943076</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1042706247.003371</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>455</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1918151842.767887</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.08478227080067061</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03016680749817479</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>440</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6695127004.755548</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.004253866085196071</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+      <c r="J21" t="n">
+        <v>959075964.9692395</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4408442126.93755</v>
+        <v>3298698845.797001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005251123920910207</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1039130838459178</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04490605016611936</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1649349466.391588</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8588194177.104428</v>
+        <v>1323914649.232808</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001537336604009575</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
+        <v>0.1690528143928016</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04512000166497665</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>661957340.0788649</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5216965079.35217</v>
+        <v>3904112094.908545</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003105536523074437</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.1182601807727632</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03081644713769225</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1952056021.691368</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6486113709.880234</v>
+        <v>1443638135.240729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002890182635603685</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
+        <v>0.08684555844982107</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02095324799721686</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>721819029.3761815</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5864178232.136898</v>
+        <v>1163002240.816248</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001333141518357865</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1130422662383811</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03519605276776615</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>581501132.2307727</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8506013996.030107</v>
+        <v>4697690472.557226</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003853507378366748</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.154034630573171</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02331442455286417</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2348845211.589504</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7431280685.610302</v>
+        <v>2551327179.394673</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004341175213186224</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>11</v>
+        <v>0.1047398762332757</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03226051390103744</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1275663561.825995</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5320714378.6</v>
+        <v>5487565533.681763</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001527798479266738</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1319235051862304</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02836024304487678</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2743782680.378769</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7889983345.169469</v>
+        <v>2153627962.305949</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004124641777937424</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.09982603552918726</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02730569976161859</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1076814035.963939</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7915336725.569147</v>
+        <v>994580659.6114783</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00272935081680027</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
+        <v>0.08420988310830542</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04588939481069285</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>497290329.4452074</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3862884171.955115</v>
+        <v>1317578755.70034</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001232399489508242</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.109849652075584</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.033981739777719</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>658789408.2796115</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5334466719.608572</v>
+        <v>2620375977.707301</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002446614635259778</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
+        <v>0.1972979685607286</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04883346643638123</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1310188016.665434</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6013942564.081674</v>
+        <v>1306690089.86346</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003550106787534236</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>14</v>
+        <v>0.07668777856501839</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02227887981270461</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>653345032.3816867</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5503118676.499022</v>
+        <v>1316668866.594796</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001674948246830695</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>11</v>
+        <v>0.07144332343354862</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03471180064047373</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>658334382.2528722</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5240583178.935505</v>
+        <v>3214830812.666909</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003499329284973238</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>13</v>
+        <v>0.114740405741452</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02158440215203401</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1607415370.874286</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4449037333.328327</v>
+        <v>2838840816.621921</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004472353057744564</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
+        <v>0.103896021394388</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03641553167131963</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1419420550.844585</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4047042667.912818</v>
+        <v>2154465479.868851</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00454959179920598</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09606323455393871</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02700657378804256</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1077232696.609344</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4721119687.128052</v>
+        <v>1553345730.515336</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002647697103821661</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1312919263666581</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0239478724459432</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>776672927.4546629</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5606101712.252301</v>
+        <v>1784288003.482919</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003351072250931894</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.09937829771394761</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0479521930142626</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>892143896.6015705</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7070398715.770905</v>
+        <v>2562550427.910747</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001038753306546281</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1429950883715477</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03475633321280949</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1281275233.014191</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5933896730.415068</v>
+        <v>4232347386.248729</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003891462911255751</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>11</v>
+        <v>0.1222864699177832</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03049603568382531</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2116173738.272818</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4954492314.287471</v>
+        <v>2649466500.397067</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003798786384257774</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+        <v>0.1354731251604783</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01917765666153811</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1324733283.686213</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6801435913.351517</v>
+        <v>2234170993.682445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001438877078542412</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.07106137853175165</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03518226762679583</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1117085649.741975</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3751504025.914251</v>
+        <v>2327255281.313593</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001312843983972467</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1516946491606473</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05500020436465633</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1163627664.316445</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11252265002.74503</v>
+        <v>5051539585.454981</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004455441215745797</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
+        <v>0.1627844072614404</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06044643383860421</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2525769822.315142</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>10163839759.45958</v>
+        <v>4142392857.599483</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002087830240470197</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1511573248218247</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04344858946979881</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2071196435.890673</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5216587253.4205</v>
+        <v>2858892168.119003</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00289773640328199</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
+        <v>0.0736632296916126</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02802702258594601</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1429446184.552395</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4631483857.738029</v>
+        <v>1710131402.706513</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005661939818424785</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1550101163779624</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04115888427068688</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>855065700.5364343</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8071591199.66713</v>
+        <v>3569646324.026159</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003616996030630322</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>13</v>
+        <v>0.1460648408565642</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04219996872014069</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1784823181.154567</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5459788471.70133</v>
+        <v>1358304984.790016</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004467722749593699</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.172772326953756</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04076652187761737</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>679152518.1461104</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6664131288.727053</v>
+        <v>3555202758.26393</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002125815159361371</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>11</v>
+        <v>0.1387822979681623</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03811700780594311</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1777601461.647286</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6806567436.269187</v>
+        <v>2947568221.92185</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003012813621140595</v>
-      </c>
-      <c r="G53" t="b">
+        <v>0.1767834164699591</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02819189300009767</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>8</v>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1473784146.841256</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5424174530.833609</v>
+        <v>4958268647.721636</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005026993942221166</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11</v>
+        <v>0.1092966594600346</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04255417917893157</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2479134462.951689</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8418425234.590994</v>
+        <v>3697214203.431099</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004121917123424651</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>14</v>
+        <v>0.1998031926026274</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02711775317742776</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1848607063.097697</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4753747244.685355</v>
+        <v>1666480775.747589</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002640206355372253</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1604989936250665</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05382795397695823</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>833240405.329636</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8264507799.92367</v>
+        <v>3097193123.876548</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003063920027264316</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
+        <v>0.1707637815775622</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01959102038562416</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1548596574.361077</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6194104161.104136</v>
+        <v>1709098228.560859</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002104922057903124</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
+        <v>0.1613473196560675</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03024741824052736</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>854549126.2124132</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4842268609.01559</v>
+        <v>3282505885.031085</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004303707809917839</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.09176879836965693</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04092334605458971</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1641252952.919339</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5516836240.944915</v>
+        <v>2621578132.929497</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003957022367908131</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1638290760513259</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02119875417978912</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1310789096.999906</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7090467292.121439</v>
+        <v>2864311222.651932</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003805735264313184</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1589645596516528</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02090617613674459</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>9</v>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1432155604.436788</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6295208337.696441</v>
+        <v>1451018726.866711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00371150311686495</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
+        <v>0.1896701188417482</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04539728928116933</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>725509338.9982505</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6853285715.809321</v>
+        <v>3554237367.700171</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004116207200573463</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.1012261038535116</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03492435244404438</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>10</v>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1777118765.971868</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4369287234.515056</v>
+        <v>4199841216.175393</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005221734212779836</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1915118587992052</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03517710926486407</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2099920657.859305</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6042337019.572117</v>
+        <v>5474507708.931882</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005111825650471749</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1362887228877041</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02096901920147435</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2737253784.926744</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6623367857.232558</v>
+        <v>5489373136.898487</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003610804946620857</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1354564897094223</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04201035098978327</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2744686621.67711</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4814305652.657626</v>
+        <v>2482731409.184532</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005829630051769409</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09607356153766126</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03981446802659697</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1241365766.457373</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7338584693.252461</v>
+        <v>4696359648.436263</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002553814705912547</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
+        <v>0.1473877651630046</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0356752560023069</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2348179862.060631</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4751401032.07262</v>
+        <v>2193694936.724717</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001094333435299472</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
+        <v>0.1797772882024474</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05729732012988103</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1096847498.202482</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5400840980.621352</v>
+        <v>2652299694.183125</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003379667339665043</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.07522421457909549</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03035995936891398</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1326149801.350734</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5065171137.993519</v>
+        <v>3819703178.335454</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003762206436611843</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1841518277122774</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03363802364548004</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>16</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1909851606.625973</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6729937924.470688</v>
+        <v>2080589772.182974</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002362216477051673</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.06842903646161513</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05328817596434343</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1040294819.267144</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5156549070.77408</v>
+        <v>2965409208.97994</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00119628548018449</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.09285623638116385</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03299468958417823</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1482704603.495248</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5709864069.746798</v>
+        <v>3513827765.89162</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003321633790156942</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.1668587468569468</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02137188630981003</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1756913903.796933</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7484839240.730474</v>
+        <v>1973514671.92208</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00374990356204584</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>8</v>
+        <v>0.1364339278119101</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02815257067015487</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>986757302.4456085</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6490922949.554881</v>
+        <v>4439931483.982491</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002823220075020995</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.09441106777363485</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0314402604617362</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2219965745.013353</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5728059878.495442</v>
+        <v>1789627515.006139</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005921122673251763</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>15</v>
+        <v>0.1551616133564658</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02705666389541222</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>894813787.8292345</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6698885496.129982</v>
+        <v>4622670230.340715</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003253294761462785</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
+        <v>0.1190835913672506</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03833661948120636</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2311335036.102903</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8315064457.46525</v>
+        <v>1896922739.976395</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002512442204452476</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1378110716961437</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0267283274260504</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>948461473.4142795</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4952880141.589149</v>
+        <v>3567745843.073966</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002206628796117372</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>14</v>
+        <v>0.08054956264192564</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03340005853924317</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1783872899.376743</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5275114813.437634</v>
+        <v>4283830458.850576</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004909416536531643</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.1194716562599682</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02169473715838217</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2141915203.033543</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4967176868.633718</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1508389795640221</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02889943294596245</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6343116763.727118</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.005602204161100641</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>8</v>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2483588419.93048</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9202516017.66651</v>
+        <v>1854530542.794017</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003069464136815279</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1251571731609453</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04350231179481804</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>927265238.3983103</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5831149283.165017</v>
+        <v>1884753438.655265</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004639426764365303</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.1021432879194446</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04697431464629536</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>942376741.0655662</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4471342037.710603</v>
+        <v>2659871195.837763</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002439639073559004</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1794522353830701</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04938762178322056</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1329935620.369531</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8620475874.28702</v>
+        <v>1898563685.987613</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002655140844214299</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.169917525418807</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02461215089591331</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>949281856.3844854</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4254333274.773223</v>
+        <v>1278008812.481268</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001184157702778238</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1734415065189596</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03151417359124262</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>639004481.6939332</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7915826128.599463</v>
+        <v>2272548128.122223</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004703485172297103</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>10</v>
+        <v>0.17126319875576</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03685415059907112</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1136274022.490906</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5348487472.343041</v>
+        <v>3060422865.719466</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003344982767349646</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+        <v>0.1420146136838487</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03915882987794037</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1530211466.390263</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7076413642.128557</v>
+        <v>1394917877.063358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002775546664107161</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>8</v>
+        <v>0.1237498835806105</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04083939528984282</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>697458897.8629913</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5897343151.755477</v>
+        <v>1908573169.336637</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003948966375278387</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>13</v>
+        <v>0.1552769305727081</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04749963675594814</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>954286568.958308</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4341915243.855957</v>
+        <v>2585180853.317445</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003284884509353879</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08125768891360903</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04287846608811991</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1292590416.908737</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7057893092.595659</v>
+        <v>4188134745.547929</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001507603047361854</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>16</v>
+        <v>0.08720907988579206</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03669423720998519</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2094067361.078959</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6977781275.007051</v>
+        <v>2042271186.84838</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001457706440662047</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.151311748443983</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04034258194634333</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1021135597.112361</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5953638754.284366</v>
+        <v>2847544404.835362</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002920632826926251</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>11</v>
+        <v>0.1315786742011761</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04121236970627855</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1423772213.105544</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8051710999.642794</v>
+        <v>1737030143.2626</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00291676633770721</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>12</v>
+        <v>0.1062531093953331</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03106338720528301</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>868515086.5360727</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6678508934.989855</v>
+        <v>4745134910.131756</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005525195598055539</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>11</v>
+        <v>0.1631243805440145</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02140693137509027</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2372567571.21632</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9249155753.461319</v>
+        <v>3497426712.121095</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004246733957586696</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>17</v>
+        <v>0.1211143502132159</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02227865018306854</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1748713374.343037</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2664655260.966097</v>
+        <v>2455281845.283662</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003832283825115238</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.100751478299288</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03498964975603171</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1227640868.925383</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5821778676.663288</v>
+        <v>3729084919.399482</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00337554494412211</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>4</v>
+        <v>0.1609904624954969</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02324589559677759</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1864542508.58481</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6387327470.094736</v>
+        <v>3238296885.593023</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001603503718541718</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1720021964344749</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0580087965065916</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>14</v>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1619148563.191907</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_44.xlsx
+++ b/output/fit_clients/fit_round_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2391353008.854101</v>
+        <v>1901886072.420543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09804008465436589</v>
+        <v>0.08208473082803723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03752578144500451</v>
+        <v>0.04118529463267712</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1195676552.610177</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2480854378.907124</v>
+        <v>1728190053.18642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1837351293616513</v>
+        <v>0.1601979846119103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04000351863239215</v>
+        <v>0.04466149148666467</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1240427303.840249</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4987199076.096646</v>
+        <v>4092251096.146661</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1128765671402224</v>
+        <v>0.1434243014342017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03479300152811286</v>
+        <v>0.02892487037000593</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2493599622.015727</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4057210446.070759</v>
+        <v>3280155403.152276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09826636316959879</v>
+        <v>0.09628712781545232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04051416303045651</v>
+        <v>0.03191110036996548</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2028605222.833764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1982709197.385097</v>
+        <v>2441336745.453896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1163878907346514</v>
+        <v>0.1490526045401507</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05099695482634484</v>
+        <v>0.03668253933552635</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>991354630.0093656</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2902079051.030556</v>
+        <v>2596341870.099402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09215423010943091</v>
+        <v>0.09726547598601809</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04233806704257496</v>
+        <v>0.04430463732166168</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1451039499.667623</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3731436960.51477</v>
+        <v>2858056657.295338</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1587509676249692</v>
+        <v>0.1830690222752459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02692360484013896</v>
+        <v>0.02464180294274585</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1865718612.38054</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1668299430.917897</v>
+        <v>1741035824.558512</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1398422022903488</v>
+        <v>0.1277896463241461</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02916313626464691</v>
+        <v>0.03108154214661284</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>834149787.9279118</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4083760161.958938</v>
+        <v>5299523933.070917</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1816236722442605</v>
+        <v>0.1327769144144593</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03572423046107711</v>
+        <v>0.04733429377512847</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2041880109.204442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3872931003.055129</v>
+        <v>2764085916.605334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1571447258654858</v>
+        <v>0.1438737471001243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0317330358218201</v>
+        <v>0.04596183367251116</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1936465505.195316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2499789285.129393</v>
+        <v>2412092150.18748</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1956508336345727</v>
+        <v>0.130757262150406</v>
       </c>
       <c r="G12" t="n">
-        <v>0.048081803231808</v>
+        <v>0.03911813164426407</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1249894614.623486</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4471622458.517303</v>
+        <v>3341751799.112115</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06732016346406605</v>
+        <v>0.09933560862906567</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02659851913012662</v>
+        <v>0.03057200322917801</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2235811260.075513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3226818558.434494</v>
+        <v>3646524612.532245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1703878884223467</v>
+        <v>0.1227221911528555</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04155582868143059</v>
+        <v>0.03799112079788917</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1613409297.102775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1282100459.570341</v>
+        <v>1726098016.937226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09092791947886937</v>
+        <v>0.1063553613514864</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03317146422763676</v>
+        <v>0.04603912940875238</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>641050265.7349921</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2017565753.766186</v>
+        <v>2230837329.977622</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0711168167089492</v>
+        <v>0.07552351043660746</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03424107201885498</v>
+        <v>0.0350086862615093</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1008782950.650464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5137564460.103302</v>
+        <v>3216819786.096032</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1737663377006098</v>
+        <v>0.1175176345519598</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0371984171834351</v>
+        <v>0.05231703573153854</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2568782208.314178</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4015553728.979078</v>
+        <v>2730134858.577724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1614475971669956</v>
+        <v>0.1710784015903075</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02568226706471775</v>
+        <v>0.02988092121533523</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2007776821.069964</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1369593485.054013</v>
+        <v>899690079.8510145</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1848540885683296</v>
+        <v>0.1775542614884323</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02388557926992424</v>
+        <v>0.01730534358893715</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>684796861.6065769</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2085412459.803895</v>
+        <v>2041201071.233737</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1086932956040343</v>
+        <v>0.1451436028647241</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02714751599943076</v>
+        <v>0.02429831235796797</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1042706247.003371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1918151842.767887</v>
+        <v>2286931389.708278</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08478227080067061</v>
+        <v>0.09994825077245315</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03016680749817479</v>
+        <v>0.04189222175877595</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>959075964.9692395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3298698845.797001</v>
+        <v>2881583619.636185</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1039130838459178</v>
+        <v>0.1338076287787446</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04490605016611936</v>
+        <v>0.0538079307700334</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1649349466.391588</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1323914649.232808</v>
+        <v>1358335342.443492</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1690528143928016</v>
+        <v>0.1223469303408616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04512000166497665</v>
+        <v>0.05175660021970716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>661957340.0788649</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3904112094.908545</v>
+        <v>3117367141.692656</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1182601807727632</v>
+        <v>0.1105576214430521</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03081644713769225</v>
+        <v>0.03059805156000755</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1952056021.691368</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1443638135.240729</v>
+        <v>1097727885.965195</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08684555844982107</v>
+        <v>0.118336573711308</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02095324799721686</v>
+        <v>0.0306849783437304</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>721819029.3761815</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1163002240.816248</v>
+        <v>1448463971.831865</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1130422662383811</v>
+        <v>0.1160256064055329</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03519605276776615</v>
+        <v>0.02809816289411642</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>581501132.2307727</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4697690472.557226</v>
+        <v>3358712545.810863</v>
       </c>
       <c r="F27" t="n">
-        <v>0.154034630573171</v>
+        <v>0.098881906055269</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02331442455286417</v>
+        <v>0.01711064254650727</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2348845211.589504</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2551327179.394673</v>
+        <v>2957581628.942736</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1047398762332757</v>
+        <v>0.09513149354322317</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03226051390103744</v>
+        <v>0.04827822323488634</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1275663561.825995</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5487565533.681763</v>
+        <v>4301573782.054941</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1319235051862304</v>
+        <v>0.09889325212783583</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02836024304487678</v>
+        <v>0.02957297011054587</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2743782680.378769</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2153627962.305949</v>
+        <v>2015290719.916436</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09982603552918726</v>
+        <v>0.103483564462189</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02730569976161859</v>
+        <v>0.03609727848451563</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1076814035.963939</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>994580659.6114783</v>
+        <v>1142073011.031975</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08420988310830542</v>
+        <v>0.09120251500334083</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04588939481069285</v>
+        <v>0.03565222708622075</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>497290329.4452074</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1317578755.70034</v>
+        <v>1718856838.693278</v>
       </c>
       <c r="F32" t="n">
-        <v>0.109849652075584</v>
+        <v>0.08612519030184389</v>
       </c>
       <c r="G32" t="n">
-        <v>0.033981739777719</v>
+        <v>0.03279805519394102</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>658789408.2796115</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2620375977.707301</v>
+        <v>3123642091.985519</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1972979685607286</v>
+        <v>0.1985563838371889</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04883346643638123</v>
+        <v>0.0402246918025535</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1310188016.665434</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1306690089.86346</v>
+        <v>1390540228.43287</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07668777856501839</v>
+        <v>0.0875966803541243</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02227887981270461</v>
+        <v>0.02789608102445656</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>653345032.3816867</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1316668866.594796</v>
+        <v>922444852.5270233</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07144332343354862</v>
+        <v>0.09714540380947713</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03471180064047373</v>
+        <v>0.03388090214195471</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>658334382.2528722</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3214830812.666909</v>
+        <v>2994507102.599099</v>
       </c>
       <c r="F36" t="n">
-        <v>0.114740405741452</v>
+        <v>0.1108172599095601</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02158440215203401</v>
+        <v>0.02134614442192604</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1607415370.874286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2838840816.621921</v>
+        <v>2162795638.654016</v>
       </c>
       <c r="F37" t="n">
-        <v>0.103896021394388</v>
+        <v>0.09650209216984479</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03641553167131963</v>
+        <v>0.03493955008740459</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1419420550.844585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2154465479.868851</v>
+        <v>1922073243.42565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09606323455393871</v>
+        <v>0.08446193013067618</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02700657378804256</v>
+        <v>0.03981742519978192</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1077232696.609344</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1553345730.515336</v>
+        <v>1379932272.681365</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1312919263666581</v>
+        <v>0.1201564160281784</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0239478724459432</v>
+        <v>0.02942130414440081</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>776672927.4546629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1784288003.482919</v>
+        <v>1214095269.973055</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09937829771394761</v>
+        <v>0.1447458450650732</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0479521930142626</v>
+        <v>0.03974238758052378</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>892143896.6015705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2562550427.910747</v>
+        <v>1982026937.955596</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1429950883715477</v>
+        <v>0.151069001282825</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03475633321280949</v>
+        <v>0.03136464687211094</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1281275233.014191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4232347386.248729</v>
+        <v>2657560948.571858</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1222864699177832</v>
+        <v>0.08718125999056317</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03049603568382531</v>
+        <v>0.04374820419465216</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2116173738.272818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2649466500.397067</v>
+        <v>2059893024.373376</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1354731251604783</v>
+        <v>0.1254421074199685</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01917765666153811</v>
+        <v>0.02382494549215383</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1324733283.686213</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2234170993.682445</v>
+        <v>1940250766.844873</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07106137853175165</v>
+        <v>0.09332394480829555</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03518226762679583</v>
+        <v>0.0354472891549532</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1117085649.741975</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2327255281.313593</v>
+        <v>2073661801.351461</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1516946491606473</v>
+        <v>0.1393431560412615</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05500020436465633</v>
+        <v>0.04035892466446431</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1163627664.316445</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5051539585.454981</v>
+        <v>4339698964.349197</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1627844072614404</v>
+        <v>0.1407614256740456</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06044643383860421</v>
+        <v>0.05758417646734384</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2525769822.315142</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4142392857.599483</v>
+        <v>4462602733.818508</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1511573248218247</v>
+        <v>0.1632805644264898</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04344858946979881</v>
+        <v>0.05914827191141037</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2071196435.890673</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2858892168.119003</v>
+        <v>4152822636.342698</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0736632296916126</v>
+        <v>0.07125772758105156</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02802702258594601</v>
+        <v>0.03465655436774059</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1429446184.552395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1710131402.706513</v>
+        <v>1217645346.810686</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1550101163779624</v>
+        <v>0.1685215204677007</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04115888427068688</v>
+        <v>0.03098641374620373</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>855065700.5364343</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3569646324.026159</v>
+        <v>4157209328.594714</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1460648408565642</v>
+        <v>0.1281539925950435</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04219996872014069</v>
+        <v>0.03566658762185321</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1784823181.154567</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1358304984.790016</v>
+        <v>1189632024.334416</v>
       </c>
       <c r="F51" t="n">
-        <v>0.172772326953756</v>
+        <v>0.1351054076098158</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04076652187761737</v>
+        <v>0.0439081126850774</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>679152518.1461104</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3555202758.26393</v>
+        <v>4136956942.80434</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1387822979681623</v>
+        <v>0.115663294104232</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03811700780594311</v>
+        <v>0.04455493003690307</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>18</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1777601461.647286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2947568221.92185</v>
+        <v>2396797758.49133</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1767834164699591</v>
+        <v>0.1987441950628941</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02819189300009767</v>
+        <v>0.02717088614325682</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1473784146.841256</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4958268647.721636</v>
+        <v>4721445019.948195</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1092966594600346</v>
+        <v>0.1510242151890154</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04255417917893157</v>
+        <v>0.03504642571425647</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2479134462.951689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3697214203.431099</v>
+        <v>4093051024.303658</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1998031926026274</v>
+        <v>0.1428288331687106</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02711775317742776</v>
+        <v>0.0289356829875293</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1848607063.097697</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1666480775.747589</v>
+        <v>1374060049.184372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1604989936250665</v>
+        <v>0.1008906297275727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05382795397695823</v>
+        <v>0.0493956350488786</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>833240405.329636</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3097193123.876548</v>
+        <v>4160419180.778164</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1707637815775622</v>
+        <v>0.1673676793005858</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01959102038562416</v>
+        <v>0.02548940327298949</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1548596574.361077</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1709098228.560859</v>
+        <v>1213616324.663926</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1613473196560675</v>
+        <v>0.1870597587667213</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03024741824052736</v>
+        <v>0.03799932560237961</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>854549126.2124132</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3282505885.031085</v>
+        <v>3338786104.808156</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09176879836965693</v>
+        <v>0.1026291706941257</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04092334605458971</v>
+        <v>0.03269505825036811</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1641252952.919339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2621578132.929497</v>
+        <v>2921746399.980422</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1638290760513259</v>
+        <v>0.1515904592400803</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02119875417978912</v>
+        <v>0.03351842784050922</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1310789096.999906</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2864311222.651932</v>
+        <v>2068327157.945082</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1589645596516528</v>
+        <v>0.1466394773023827</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02090617613674459</v>
+        <v>0.02959891209650029</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1432155604.436788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1451018726.866711</v>
+        <v>1959882482.473208</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1896701188417482</v>
+        <v>0.1822375902684029</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04539728928116933</v>
+        <v>0.0451177914275032</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>725509338.9982505</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3554237367.700171</v>
+        <v>3987154190.490594</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1012261038535116</v>
+        <v>0.07910960880778573</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03492435244404438</v>
+        <v>0.04569446643563221</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1777118765.971868</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4199841216.175393</v>
+        <v>4708237648.577968</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1915118587992052</v>
+        <v>0.1295986017291426</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03517710926486407</v>
+        <v>0.024247890131879</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2099920657.859305</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5474507708.931882</v>
+        <v>4273911871.227726</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1362887228877041</v>
+        <v>0.1670446226870756</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02096901920147435</v>
+        <v>0.02460895687223277</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>16</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2737253784.926744</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5489373136.898487</v>
+        <v>5602770341.669909</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1354564897094223</v>
+        <v>0.150410897110741</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04201035098978327</v>
+        <v>0.04749095194092209</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2744686621.67711</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2482731409.184532</v>
+        <v>2903998952.985618</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09607356153766126</v>
+        <v>0.06911732708724615</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03981446802659697</v>
+        <v>0.04809942559322392</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1241365766.457373</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4696359648.436263</v>
+        <v>6046873381.562214</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1473877651630046</v>
+        <v>0.155757835465035</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0356752560023069</v>
+        <v>0.04104139731164361</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2348179862.060631</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2193694936.724717</v>
+        <v>1856857121.422217</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1797772882024474</v>
+        <v>0.1797491539501622</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05729732012988103</v>
+        <v>0.04092204052154204</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1096847498.202482</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2652299694.183125</v>
+        <v>2815983346.278857</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07522421457909549</v>
+        <v>0.088720620088013</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03035995936891398</v>
+        <v>0.03449898421729377</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1326149801.350734</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3819703178.335454</v>
+        <v>3754687968.775805</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1841518277122774</v>
+        <v>0.1230862164767991</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03363802364548004</v>
+        <v>0.03296036435157133</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>16</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1909851606.625973</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2080589772.182974</v>
+        <v>2005586607.335523</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06842903646161513</v>
+        <v>0.1044898706007783</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05328817596434343</v>
+        <v>0.03686360217847105</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1040294819.267144</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2965409208.97994</v>
+        <v>2808953531.751862</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09285623638116385</v>
+        <v>0.07891075056888477</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03299468958417823</v>
+        <v>0.03486714134706508</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>17</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1482704603.495248</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3513827765.89162</v>
+        <v>2498416720.314043</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1668587468569468</v>
+        <v>0.1205227046268909</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02137188630981003</v>
+        <v>0.02496706380384547</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1756913903.796933</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1973514671.92208</v>
+        <v>2087110907.1299</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1364339278119101</v>
+        <v>0.1463461671688391</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02815257067015487</v>
+        <v>0.03062967098811189</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>986757302.4456085</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4439931483.982491</v>
+        <v>4946340150.179178</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09441106777363485</v>
+        <v>0.1130963126236802</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0314402604617362</v>
+        <v>0.02487158038918732</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2219965745.013353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1789627515.006139</v>
+        <v>1895081811.21699</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1551616133564658</v>
+        <v>0.1222384375763347</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02705666389541222</v>
+        <v>0.01955396067195598</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>894813787.8292345</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4622670230.340715</v>
+        <v>3049957623.269322</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1190835913672506</v>
+        <v>0.08811842105486106</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03833661948120636</v>
+        <v>0.05621441960376301</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2311335036.102903</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1896922739.976395</v>
+        <v>1172993881.560246</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1378110716961437</v>
+        <v>0.1622601639988325</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0267283274260504</v>
+        <v>0.03415859250760512</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>948461473.4142795</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3567745843.073966</v>
+        <v>4255275862.532023</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08054956264192564</v>
+        <v>0.07569066720584916</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03340005853924317</v>
+        <v>0.02428047961237116</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1783872899.376743</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4283830458.850576</v>
+        <v>4340297622.66751</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1194716562599682</v>
+        <v>0.1140481765111364</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02169473715838217</v>
+        <v>0.02153867934681641</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2141915203.033543</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4967176868.633718</v>
+        <v>5268306420.681792</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1508389795640221</v>
+        <v>0.2003265599188256</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02889943294596245</v>
+        <v>0.02675081713335831</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2483588419.93048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1854530542.794017</v>
+        <v>2435590359.087829</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1251571731609453</v>
+        <v>0.1519332963916654</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04350231179481804</v>
+        <v>0.03054594410701989</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>927265238.3983103</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1884753438.655265</v>
+        <v>2341138581.392741</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1021432879194446</v>
+        <v>0.1115308636573519</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04697431464629536</v>
+        <v>0.04629236618383273</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>942376741.0655662</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2659871195.837763</v>
+        <v>2542171633.794897</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1794522353830701</v>
+        <v>0.1441339937002253</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04938762178322056</v>
+        <v>0.04332617114664988</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1329935620.369531</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1898563685.987613</v>
+        <v>2270925390.854677</v>
       </c>
       <c r="F86" t="n">
-        <v>0.169917525418807</v>
+        <v>0.1141817396751635</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02461215089591331</v>
+        <v>0.01950631317312429</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>949281856.3844854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1278008812.481268</v>
+        <v>939991230.6946607</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1734415065189596</v>
+        <v>0.1524103537599307</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03151417359124262</v>
+        <v>0.04294374573500705</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>639004481.6939332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2272548128.122223</v>
+        <v>2947019351.77777</v>
       </c>
       <c r="F88" t="n">
-        <v>0.17126319875576</v>
+        <v>0.1574148673585202</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03685415059907112</v>
+        <v>0.02533912403885818</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1136274022.490906</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3060422865.719466</v>
+        <v>2202594981.524996</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1420146136838487</v>
+        <v>0.1566561901143113</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03915882987794037</v>
+        <v>0.04134660181098786</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1530211466.390263</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1394917877.063358</v>
+        <v>1704078347.542997</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1237498835806105</v>
+        <v>0.1182545667759556</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04083939528984282</v>
+        <v>0.04677759666796705</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>697458897.8629913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1908573169.336637</v>
+        <v>1439645300.853153</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1552769305727081</v>
+        <v>0.1458725264213943</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04749963675594814</v>
+        <v>0.04942523100244808</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>954286568.958308</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2585180853.317445</v>
+        <v>2101456546.417655</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08125768891360903</v>
+        <v>0.07780594498342978</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04287846608811991</v>
+        <v>0.04395510608926095</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1292590416.908737</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4188134745.547929</v>
+        <v>4433335035.880498</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08720907988579206</v>
+        <v>0.1121373125661898</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03669423720998519</v>
+        <v>0.05167972755628229</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2094067361.078959</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2042271186.84838</v>
+        <v>2024912108.242812</v>
       </c>
       <c r="F94" t="n">
-        <v>0.151311748443983</v>
+        <v>0.1386110098420056</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04034258194634333</v>
+        <v>0.04222216100818814</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1021135597.112361</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2847544404.835362</v>
+        <v>2867880283.716</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1315786742011761</v>
+        <v>0.137344783887648</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04121236970627855</v>
+        <v>0.04000749863881466</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1423772213.105544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1737030143.2626</v>
+        <v>2116337357.950043</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062531093953331</v>
+        <v>0.1211734398857681</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03106338720528301</v>
+        <v>0.039460181597426</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>868515086.5360727</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4745134910.131756</v>
+        <v>3754538142.069489</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631243805440145</v>
+        <v>0.1466335455360253</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02140693137509027</v>
+        <v>0.026240798874384</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2372567571.21632</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3497426712.121095</v>
+        <v>3606937485.697057</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1211143502132159</v>
+        <v>0.08114591305391615</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02227865018306854</v>
+        <v>0.03206852779102118</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1748713374.343037</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2455281845.283662</v>
+        <v>3102579312.855472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.100751478299288</v>
+        <v>0.1259844037510066</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03498964975603171</v>
+        <v>0.02576504827831032</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1227640868.925383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3729084919.399482</v>
+        <v>3046154390.877417</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1609904624954969</v>
+        <v>0.1365729923837077</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02324589559677759</v>
+        <v>0.01791909148228082</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1864542508.58481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3238296885.593023</v>
+        <v>2280112973.541415</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1720021964344749</v>
+        <v>0.185297372826052</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0580087965065916</v>
+        <v>0.04297952274294271</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>18</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1619148563.191907</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_44.xlsx
+++ b/output/fit_clients/fit_round_44.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1901886072.420543</v>
+        <v>1907386879.257915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08208473082803723</v>
+        <v>0.08874995755352863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04118529463267712</v>
+        <v>0.03893212570171548</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1728190053.18642</v>
+        <v>2554617523.476572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1601979846119103</v>
+        <v>0.1478498971493039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04466149148666467</v>
+        <v>0.04508250429010368</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4092251096.146661</v>
+        <v>3227901779.500954</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1434243014342017</v>
+        <v>0.1418221907802979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02892487037000593</v>
+        <v>0.02848136352837511</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3280155403.152276</v>
+        <v>3172537483.901497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09628712781545232</v>
+        <v>0.1096928918585519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03191110036996548</v>
+        <v>0.03696722875221575</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2441336745.453896</v>
+        <v>2352702811.571932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1490526045401507</v>
+        <v>0.1037251746040635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03668253933552635</v>
+        <v>0.04596913869105786</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2596341870.099402</v>
+        <v>2264964282.961547</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09726547598601809</v>
+        <v>0.0866275657301713</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04430463732166168</v>
+        <v>0.03506681525652783</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2858056657.295338</v>
+        <v>3498876358.457791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1830690222752459</v>
+        <v>0.2130589880163899</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02464180294274585</v>
+        <v>0.02110768185968733</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1741035824.558512</v>
+        <v>2179691664.302121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1277896463241461</v>
+        <v>0.1777716103847242</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03108154214661284</v>
+        <v>0.03023101654490438</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5299523933.070917</v>
+        <v>5798762392.804534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1327769144144593</v>
+        <v>0.1590072313464582</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04733429377512847</v>
+        <v>0.05090230416797766</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2764085916.605334</v>
+        <v>3710353548.96205</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1438737471001243</v>
+        <v>0.1595360287307245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04596183367251116</v>
+        <v>0.04769066452101643</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2412092150.18748</v>
+        <v>3107643855.153913</v>
       </c>
       <c r="F12" t="n">
-        <v>0.130757262150406</v>
+        <v>0.1598816165044748</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03911813164426407</v>
+        <v>0.03801864374005545</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3341751799.112115</v>
+        <v>3981432697.555312</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09933560862906567</v>
+        <v>0.07016954750731208</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03057200322917801</v>
+        <v>0.02020954525647805</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3646524612.532245</v>
+        <v>2964437098.134374</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1227221911528555</v>
+        <v>0.1457874279985901</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03799112079788917</v>
+        <v>0.03275448236041719</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1726098016.937226</v>
+        <v>1602913953.728208</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1063553613514864</v>
+        <v>0.09307409632749396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04603912940875238</v>
+        <v>0.0410194121968642</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2230837329.977622</v>
+        <v>2091850758.928036</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07552351043660746</v>
+        <v>0.09736594747874831</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0350086862615093</v>
+        <v>0.03383035224153429</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3216819786.096032</v>
+        <v>3793062724.437047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1175176345519598</v>
+        <v>0.1055653377265337</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05231703573153854</v>
+        <v>0.04343466849655431</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2730134858.577724</v>
+        <v>3228390165.233793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1710784015903075</v>
+        <v>0.13574281643019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02988092121533523</v>
+        <v>0.02228403269427322</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>899690079.8510145</v>
+        <v>943125846.2709762</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1775542614884323</v>
+        <v>0.1652094911026806</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01730534358893715</v>
+        <v>0.0229459024644406</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2041201071.233737</v>
+        <v>1814799149.513801</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1451436028647241</v>
+        <v>0.1037935688147141</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02429831235796797</v>
+        <v>0.02237711467161659</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2286931389.708278</v>
+        <v>2078210722.677746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09994825077245315</v>
+        <v>0.09635577812738215</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04189222175877595</v>
+        <v>0.0298792659440636</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2881583619.636185</v>
+        <v>3876942586.929382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338076287787446</v>
+        <v>0.1182304885669943</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0538079307700334</v>
+        <v>0.04629408756270673</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1358335342.443492</v>
+        <v>1349682712.199361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1223469303408616</v>
+        <v>0.1633211738176851</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05175660021970716</v>
+        <v>0.04332361482378946</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3117367141.692656</v>
+        <v>2958089879.259348</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1105576214430521</v>
+        <v>0.1435260091016724</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03059805156000755</v>
+        <v>0.03150712327117286</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1097727885.965195</v>
+        <v>1126168265.578425</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118336573711308</v>
+        <v>0.1181532014340149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0306849783437304</v>
+        <v>0.02879527930109542</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1448463971.831865</v>
+        <v>1126989553.199304</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1160256064055329</v>
+        <v>0.09070446110796386</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02809816289411642</v>
+        <v>0.03649398394472995</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3358712545.810863</v>
+        <v>4721152235.932195</v>
       </c>
       <c r="F27" t="n">
-        <v>0.098881906055269</v>
+        <v>0.1335163527616892</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01711064254650727</v>
+        <v>0.02202037133720108</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2957581628.942736</v>
+        <v>2737202861.39971</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09513149354322317</v>
+        <v>0.1359652726933365</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04827822323488634</v>
+        <v>0.04657998554410096</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4301573782.054941</v>
+        <v>4943411269.229475</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09889325212783583</v>
+        <v>0.1450874603151579</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02957297011054587</v>
+        <v>0.04543266411423704</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2015290719.916436</v>
+        <v>1520670535.636125</v>
       </c>
       <c r="F30" t="n">
-        <v>0.103483564462189</v>
+        <v>0.08840288073811028</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03609727848451563</v>
+        <v>0.03610769512508571</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1142073011.031975</v>
+        <v>999223768.0835093</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09120251500334083</v>
+        <v>0.09003871294161744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03565222708622075</v>
+        <v>0.03748848186466441</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1718856838.693278</v>
+        <v>1627026210.883512</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08612519030184389</v>
+        <v>0.07459223675642146</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03279805519394102</v>
+        <v>0.02793753401511902</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3123642091.985519</v>
+        <v>2344219924.888122</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1985563838371889</v>
+        <v>0.2082404813350782</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0402246918025535</v>
+        <v>0.04262130167324182</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1390540228.43287</v>
+        <v>999806369.0447023</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0875966803541243</v>
+        <v>0.08364981752679201</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02789608102445656</v>
+        <v>0.02255279913527334</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>922444852.5270233</v>
+        <v>1076490397.606153</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09714540380947713</v>
+        <v>0.1025452172627927</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03388090214195471</v>
+        <v>0.02755237158912809</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2994507102.599099</v>
+        <v>2255859140.518649</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1108172599095601</v>
+        <v>0.1631551531737191</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02134614442192604</v>
+        <v>0.02547834113226033</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2162795638.654016</v>
+        <v>2561352632.114726</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09650209216984479</v>
+        <v>0.07810316552055038</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03493955008740459</v>
+        <v>0.03467274965342126</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1922073243.42565</v>
+        <v>1873345102.08748</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08446193013067618</v>
+        <v>0.08234441819939096</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03981742519978192</v>
+        <v>0.039184420797338</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379932272.681365</v>
+        <v>1414512833.504134</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1201564160281784</v>
+        <v>0.157236954019081</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02942130414440081</v>
+        <v>0.02641040131722121</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1214095269.973055</v>
+        <v>1610351590.860678</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1447458450650732</v>
+        <v>0.1005524487687669</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03974238758052378</v>
+        <v>0.04003846686239219</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1982026937.955596</v>
+        <v>2567369449.42808</v>
       </c>
       <c r="F41" t="n">
-        <v>0.151069001282825</v>
+        <v>0.1652932822835174</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03136464687211094</v>
+        <v>0.04411894396350576</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2657560948.571858</v>
+        <v>3229932995.331047</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08718125999056317</v>
+        <v>0.08589450739769051</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04374820419465216</v>
+        <v>0.03076069331366888</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2059893024.373376</v>
+        <v>2790138399.761698</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1254421074199685</v>
+        <v>0.1943901664452472</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02382494549215383</v>
+        <v>0.02085349936795676</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1940250766.844873</v>
+        <v>2066948381.636144</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09332394480829555</v>
+        <v>0.06893603416960567</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0354472891549532</v>
+        <v>0.03595821971903792</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2073661801.351461</v>
+        <v>2209261228.454935</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1393431560412615</v>
+        <v>0.1910805101943201</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04035892466446431</v>
+        <v>0.04931693243112247</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4339698964.349197</v>
+        <v>4876517741.284518</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1407614256740456</v>
+        <v>0.1111514623328895</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05758417646734384</v>
+        <v>0.04106792967428376</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4462602733.818508</v>
+        <v>4097654603.303984</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1632805644264898</v>
+        <v>0.142047843140888</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05914827191141037</v>
+        <v>0.05602335578440939</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4152822636.342698</v>
+        <v>3925185091.546167</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07125772758105156</v>
+        <v>0.07789014261383596</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03465655436774059</v>
+        <v>0.02707112038336081</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1217645346.810686</v>
+        <v>1571541469.814622</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1685215204677007</v>
+        <v>0.1366660356988718</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03098641374620373</v>
+        <v>0.02924616819731417</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4157209328.594714</v>
+        <v>3995267459.941914</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1281539925950435</v>
+        <v>0.1376270897453049</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03566658762185321</v>
+        <v>0.05133230969038197</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1189632024.334416</v>
+        <v>1442339453.184522</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1351054076098158</v>
+        <v>0.1702874139448464</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0439081126850774</v>
+        <v>0.04283420142993383</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4136956942.80434</v>
+        <v>5042586203.636133</v>
       </c>
       <c r="F52" t="n">
-        <v>0.115663294104232</v>
+        <v>0.09963835701644906</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04455493003690307</v>
+        <v>0.0522889340369415</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2396797758.49133</v>
+        <v>3411180926.675788</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1987441950628941</v>
+        <v>0.1802898280855904</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02717088614325682</v>
+        <v>0.03369799828120569</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4721445019.948195</v>
+        <v>3783327099.138451</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1510242151890154</v>
+        <v>0.1528936291829707</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03504642571425647</v>
+        <v>0.0437836984285916</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4093051024.303658</v>
+        <v>4246566758.161444</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1428288331687106</v>
+        <v>0.1844664028643501</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0289356829875293</v>
+        <v>0.01997224194795626</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1374060049.184372</v>
+        <v>1143858586.31289</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1008906297275727</v>
+        <v>0.1438257875779563</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0493956350488786</v>
+        <v>0.04307483860808189</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4160419180.778164</v>
+        <v>4230144955.021362</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1673676793005858</v>
+        <v>0.1759859242579041</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02548940327298949</v>
+        <v>0.02718456067098363</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1213616324.663926</v>
+        <v>1429760587.175831</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1870597587667213</v>
+        <v>0.1852701927577142</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03799932560237961</v>
+        <v>0.03244527692951115</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3338786104.808156</v>
+        <v>4474044615.834967</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1026291706941257</v>
+        <v>0.09298081325691784</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03269505825036811</v>
+        <v>0.03666159839303668</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2921746399.980422</v>
+        <v>2843573969.840456</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1515904592400803</v>
+        <v>0.1800763458453559</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03351842784050922</v>
+        <v>0.02229707815994433</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2068327157.945082</v>
+        <v>3339809087.370656</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1466394773023827</v>
+        <v>0.1386289024274451</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02959891209650029</v>
+        <v>0.02872305817406699</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1959882482.473208</v>
+        <v>1870955728.78048</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1822375902684029</v>
+        <v>0.1593734387489599</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0451177914275032</v>
+        <v>0.04892737787665463</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3987154190.490594</v>
+        <v>5156092026.743649</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07910960880778573</v>
+        <v>0.07364059862579968</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04569446643563221</v>
+        <v>0.03305441942541049</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4708237648.577968</v>
+        <v>3587847198.279965</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1295986017291426</v>
+        <v>0.1402613264188785</v>
       </c>
       <c r="G64" t="n">
-        <v>0.024247890131879</v>
+        <v>0.02613320829166545</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4273911871.227726</v>
+        <v>5992125260.751369</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1670446226870756</v>
+        <v>0.1710502155427498</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02460895687223277</v>
+        <v>0.0216367376049153</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5602770341.669909</v>
+        <v>4051216171.715742</v>
       </c>
       <c r="F66" t="n">
-        <v>0.150410897110741</v>
+        <v>0.1343542335283822</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04749095194092209</v>
+        <v>0.04276564286565508</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2903998952.985618</v>
+        <v>2699878773.549523</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06911732708724615</v>
+        <v>0.06680200437125493</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04809942559322392</v>
+        <v>0.03428047696839942</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6046873381.562214</v>
+        <v>5614616358.781173</v>
       </c>
       <c r="F68" t="n">
-        <v>0.155757835465035</v>
+        <v>0.09748565825497751</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04104139731164361</v>
+        <v>0.04024673513056869</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1856857121.422217</v>
+        <v>1635215935.566026</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1797491539501622</v>
+        <v>0.122179015783855</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04092204052154204</v>
+        <v>0.04810966192784005</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2815983346.278857</v>
+        <v>3056805862.536449</v>
       </c>
       <c r="F70" t="n">
-        <v>0.088720620088013</v>
+        <v>0.102182708542804</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03449898421729377</v>
+        <v>0.03607542611055248</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3754687968.775805</v>
+        <v>5001738973.870411</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1230862164767991</v>
+        <v>0.1425039404433412</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03296036435157133</v>
+        <v>0.02850799040128642</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2005586607.335523</v>
+        <v>1947463452.538463</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1044898706007783</v>
+        <v>0.1028144477717993</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03686360217847105</v>
+        <v>0.04448637079547413</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2808953531.751862</v>
+        <v>3020496075.755119</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07891075056888477</v>
+        <v>0.074528882066257</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03486714134706508</v>
+        <v>0.0331172988826166</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2498416720.314043</v>
+        <v>3716356802.200638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1205227046268909</v>
+        <v>0.1659639851204717</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02496706380384547</v>
+        <v>0.03078092931126556</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2087110907.1299</v>
+        <v>1727111616.87382</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1463461671688391</v>
+        <v>0.1554769424494117</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03062967098811189</v>
+        <v>0.03152920426748389</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4946340150.179178</v>
+        <v>4275418676.191047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1130963126236802</v>
+        <v>0.08848738514749176</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02487158038918732</v>
+        <v>0.03370217535310364</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1895081811.21699</v>
+        <v>1894501840.054963</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1222384375763347</v>
+        <v>0.1226580234574934</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01955396067195598</v>
+        <v>0.02824302659556027</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3049957623.269322</v>
+        <v>4781136650.393315</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08811842105486106</v>
+        <v>0.1244178864043328</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05621441960376301</v>
+        <v>0.04456293541914061</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1172993881.560246</v>
+        <v>1283166527.742802</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1622601639988325</v>
+        <v>0.1111743406466607</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03415859250760512</v>
+        <v>0.02745443644771098</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4255275862.532023</v>
+        <v>5051448659.521413</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07569066720584916</v>
+        <v>0.07180388905119978</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02428047961237116</v>
+        <v>0.03619363030030101</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4340297622.66751</v>
+        <v>3279518553.241244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1140481765111364</v>
+        <v>0.09112419894242038</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02153867934681641</v>
+        <v>0.02503577971260864</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5268306420.681792</v>
+        <v>5096389511.505899</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2003265599188256</v>
+        <v>0.1908096271275716</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02675081713335831</v>
+        <v>0.01867362811123926</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2435590359.087829</v>
+        <v>2461984243.540131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1519332963916654</v>
+        <v>0.1539671738968659</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03054594410701989</v>
+        <v>0.02976474400277693</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2341138581.392741</v>
+        <v>1664297043.039011</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115308636573519</v>
+        <v>0.08851798927863667</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04629236618383273</v>
+        <v>0.04026546511691965</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2542171633.794897</v>
+        <v>2379060129.751857</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1441339937002253</v>
+        <v>0.1777609569089601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04332617114664988</v>
+        <v>0.05497506969537602</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2270925390.854677</v>
+        <v>2736236195.596023</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1141817396751635</v>
+        <v>0.1458255254744334</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01950631317312429</v>
+        <v>0.02741354527708187</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>939991230.6946607</v>
+        <v>1035173629.134548</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1524103537599307</v>
+        <v>0.1206075541632917</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04294374573500705</v>
+        <v>0.04295082888748467</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2947019351.77777</v>
+        <v>2617537083.9987</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1574148673585202</v>
+        <v>0.1615771093824055</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02533912403885818</v>
+        <v>0.02655970948241227</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2202594981.524996</v>
+        <v>3442484638.937854</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1566561901143113</v>
+        <v>0.1337871374557718</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04134660181098786</v>
+        <v>0.03087578067424993</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1704078347.542997</v>
+        <v>1719324112.082624</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1182545667759556</v>
+        <v>0.09887361123103872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04677759666796705</v>
+        <v>0.05371157796831229</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1439645300.853153</v>
+        <v>2078800154.338344</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1458725264213943</v>
+        <v>0.1340096940216279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04942523100244808</v>
+        <v>0.06128143842623509</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2101456546.417655</v>
+        <v>2788899195.738416</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07780594498342978</v>
+        <v>0.1036598873347656</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04395510608926095</v>
+        <v>0.04745869112429574</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4433335035.880498</v>
+        <v>3323211961.149257</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1121373125661898</v>
+        <v>0.1311750918949006</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05167972755628229</v>
+        <v>0.03437132895729967</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2024912108.242812</v>
+        <v>2118998826.577252</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1386110098420056</v>
+        <v>0.1147993540550211</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04222216100818814</v>
+        <v>0.02631844232200959</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2867880283.716</v>
+        <v>2655638112.466914</v>
       </c>
       <c r="F95" t="n">
-        <v>0.137344783887648</v>
+        <v>0.135288176917354</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04000749863881466</v>
+        <v>0.04093411411207745</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2116337357.950043</v>
+        <v>1560214459.864687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1211734398857681</v>
+        <v>0.1359674644127059</v>
       </c>
       <c r="G96" t="n">
-        <v>0.039460181597426</v>
+        <v>0.04669421998798383</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3754538142.069489</v>
+        <v>5350574039.907534</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1466335455360253</v>
+        <v>0.1520175194896596</v>
       </c>
       <c r="G97" t="n">
-        <v>0.026240798874384</v>
+        <v>0.02456920222637438</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3606937485.697057</v>
+        <v>2573320339.751074</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08114591305391615</v>
+        <v>0.09647396824513289</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03206852779102118</v>
+        <v>0.03098820831575128</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3102579312.855472</v>
+        <v>3414825495.01143</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1259844037510066</v>
+        <v>0.1253621170128575</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02576504827831032</v>
+        <v>0.03387468417663973</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3046154390.877417</v>
+        <v>2928276664.14442</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1365729923837077</v>
+        <v>0.1525839898839929</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01791909148228082</v>
+        <v>0.02084958137964913</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2280112973.541415</v>
+        <v>3187483029.490078</v>
       </c>
       <c r="F101" t="n">
-        <v>0.185297372826052</v>
+        <v>0.2222473333621177</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04297952274294271</v>
+        <v>0.05522757869980201</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_44.xlsx
+++ b/output/fit_clients/fit_round_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1907386879.257915</v>
+        <v>1589864655.052626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08874995755352863</v>
+        <v>0.08778833905450983</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03893212570171548</v>
+        <v>0.03199276471317778</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2554617523.476572</v>
+        <v>2542553126.922462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1478498971493039</v>
+        <v>0.1707440952780065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04508250429010368</v>
+        <v>0.03254731690739254</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3227901779.500954</v>
+        <v>4299089825.793915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1418221907802979</v>
+        <v>0.1637864923802013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02848136352837511</v>
+        <v>0.02568906221696109</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>213.0112294144314</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3172537483.901497</v>
+        <v>3316898719.359472</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1096928918585519</v>
+        <v>0.10421004359188</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03696722875221575</v>
+        <v>0.03655465510463356</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43</v>
+      </c>
+      <c r="K5" t="n">
+        <v>151.2461016767137</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2352702811.571932</v>
+        <v>2491595854.545992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1037251746040635</v>
+        <v>0.1174176965479962</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04596913869105786</v>
+        <v>0.05343728253292276</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2264964282.961547</v>
+        <v>2855638951.877964</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0866275657301713</v>
+        <v>0.08511124846008176</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03506681525652783</v>
+        <v>0.04653869402768134</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3498876358.457791</v>
+        <v>2546050724.922264</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2130589880163899</v>
+        <v>0.1827318050153013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02110768185968733</v>
+        <v>0.03306903700266259</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2179691664.302121</v>
+        <v>1458688120.823837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1777716103847242</v>
+        <v>0.1455956531139879</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03023101654490438</v>
+        <v>0.02372416332679097</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5798762392.804534</v>
+        <v>5449376562.710868</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1590072313464582</v>
+        <v>0.1929937092875773</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05090230416797766</v>
+        <v>0.05426214412105423</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>44</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3710353548.96205</v>
+        <v>4079600915.70477</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1595360287307245</v>
+        <v>0.1152291474049423</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04769066452101643</v>
+        <v>0.04452186256424385</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>44</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3107643855.153913</v>
+        <v>2752035264.888381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1598816165044748</v>
+        <v>0.1265781157153866</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03801864374005545</v>
+        <v>0.0346195046509584</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3981432697.555312</v>
+        <v>4916614557.199543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07016954750731208</v>
+        <v>0.07098058508460779</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02020954525647805</v>
+        <v>0.0293275343628674</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>44</v>
+      </c>
+      <c r="K13" t="n">
+        <v>209.5862581396536</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2964437098.134374</v>
+        <v>3405321178.249204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1457874279985901</v>
+        <v>0.1624775566666365</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03275448236041719</v>
+        <v>0.02931065496880253</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1602913953.728208</v>
+        <v>1128859692.934556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09307409632749396</v>
+        <v>0.1041694121357334</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0410194121968642</v>
+        <v>0.04686609582667894</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2091850758.928036</v>
+        <v>2787243444.464695</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09736594747874831</v>
+        <v>0.1089093179584345</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03383035224153429</v>
+        <v>0.03236181985832821</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3793062724.437047</v>
+        <v>4657664596.859813</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1055653377265337</v>
+        <v>0.110062571043075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04343466849655431</v>
+        <v>0.03239570890209737</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>43</v>
+      </c>
+      <c r="K17" t="n">
+        <v>194.7312673409604</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3228390165.233793</v>
+        <v>3645440427.099302</v>
       </c>
       <c r="F18" t="n">
-        <v>0.13574281643019</v>
+        <v>0.1257587001897932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02228403269427322</v>
+        <v>0.02176151430714419</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>44</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>943125846.2709762</v>
+        <v>1284080743.74572</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1652094911026806</v>
+        <v>0.1436322831052893</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0229459024644406</v>
+        <v>0.01775357228201895</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1814799149.513801</v>
+        <v>2807976249.065735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1037935688147141</v>
+        <v>0.1550651990842042</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02237711467161659</v>
+        <v>0.01943158468671822</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2078210722.677746</v>
+        <v>2004404102.367515</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09635577812738215</v>
+        <v>0.06771656231384447</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0298792659440636</v>
+        <v>0.03689095165140819</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3876942586.929382</v>
+        <v>3982345049.316287</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1182304885669943</v>
+        <v>0.1158249856199268</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04629408756270673</v>
+        <v>0.04695686928405743</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>44</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1349682712.199361</v>
+        <v>1218686380.982627</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1633211738176851</v>
+        <v>0.1478900600804816</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04332361482378946</v>
+        <v>0.04538973705731834</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2958089879.259348</v>
+        <v>3706234023.659054</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1435260091016724</v>
+        <v>0.1271324095122121</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03150712327117286</v>
+        <v>0.0348253248515689</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>44</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1126168265.578425</v>
+        <v>1381781687.770948</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1181532014340149</v>
+        <v>0.07429462308712216</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02879527930109542</v>
+        <v>0.01933919281617658</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1126989553.199304</v>
+        <v>1001322332.620061</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09070446110796386</v>
+        <v>0.1089586918460033</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03649398394472995</v>
+        <v>0.03484633108162465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4721152235.932195</v>
+        <v>4103599207.794545</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1335163527616892</v>
+        <v>0.1035050747274222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02202037133720108</v>
+        <v>0.0250889120075124</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>44</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2737202861.39971</v>
+        <v>3554555764.000128</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1359652726933365</v>
+        <v>0.1511583326569153</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04657998554410096</v>
+        <v>0.04704488428710289</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43</v>
+      </c>
+      <c r="K28" t="n">
+        <v>162.6106375586077</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4943411269.229475</v>
+        <v>4929513324.760651</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1450874603151579</v>
+        <v>0.1464778168058628</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04543266411423704</v>
+        <v>0.03566368883776838</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>44</v>
+      </c>
+      <c r="K29" t="n">
+        <v>240.5546922624445</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1520670535.636125</v>
+        <v>2306736731.33039</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08840288073811028</v>
+        <v>0.110170210729656</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03610769512508571</v>
+        <v>0.03757573136942437</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>999223768.0835093</v>
+        <v>1303894581.463715</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09003871294161744</v>
+        <v>0.08752099930929924</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03748848186466441</v>
+        <v>0.03434735014619728</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1627026210.883512</v>
+        <v>1494401270.331662</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07459223675642146</v>
+        <v>0.1137240613099091</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02793753401511902</v>
+        <v>0.02868863659079793</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2344219924.888122</v>
+        <v>2539177830.475424</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2082404813350782</v>
+        <v>0.1858055678804699</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04262130167324182</v>
+        <v>0.03816248166766577</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>999806369.0447023</v>
+        <v>1015748882.61958</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08364981752679201</v>
+        <v>0.07574383664778137</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02255279913527334</v>
+        <v>0.02059034254663456</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1076490397.606153</v>
+        <v>899554032.0832651</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1025452172627927</v>
+        <v>0.0849158209517681</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02755237158912809</v>
+        <v>0.04235477232383011</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2255859140.518649</v>
+        <v>2846890555.283787</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1631551531737191</v>
+        <v>0.1345232837379806</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02547834113226033</v>
+        <v>0.02085397954602376</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2561352632.114726</v>
+        <v>2529740784.4321</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07810316552055038</v>
+        <v>0.0708865789034356</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03467274965342126</v>
+        <v>0.02875526822508989</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1873345102.08748</v>
+        <v>2160260794.798981</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08234441819939096</v>
+        <v>0.08059509732868329</v>
       </c>
       <c r="G38" t="n">
-        <v>0.039184420797338</v>
+        <v>0.03224018594232522</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1414512833.504134</v>
+        <v>1666113040.82793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.157236954019081</v>
+        <v>0.1483315014873252</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02641040131722121</v>
+        <v>0.02352678003732578</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1610351590.860678</v>
+        <v>1159832622.421737</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1005524487687669</v>
+        <v>0.1520684533638208</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04003846686239219</v>
+        <v>0.04920512537868293</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2567369449.42808</v>
+        <v>2803427073.074964</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1652932822835174</v>
+        <v>0.1525995383584979</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04411894396350576</v>
+        <v>0.0377012096291832</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3229932995.331047</v>
+        <v>3573367657.424195</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08589450739769051</v>
+        <v>0.1158778694568561</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03076069331366888</v>
+        <v>0.03483497528305394</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2790138399.761698</v>
+        <v>1915496988.501898</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1943901664452472</v>
+        <v>0.1633630738753658</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02085349936795676</v>
+        <v>0.02145868739155669</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2066948381.636144</v>
+        <v>1574647209.016752</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06893603416960567</v>
+        <v>0.0846062675659041</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03595821971903792</v>
+        <v>0.02860815381908438</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2209261228.454935</v>
+        <v>1649636556.040857</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1910805101943201</v>
+        <v>0.1803751895844809</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04931693243112247</v>
+        <v>0.04722830972497937</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4876517741.284518</v>
+        <v>3942629028.428218</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1111514623328895</v>
+        <v>0.14893284763224</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04106792967428376</v>
+        <v>0.04754539184083426</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>43</v>
+      </c>
+      <c r="K46" t="n">
+        <v>203.1636098569713</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4097654603.303984</v>
+        <v>4617977355.258434</v>
       </c>
       <c r="F47" t="n">
-        <v>0.142047843140888</v>
+        <v>0.1607195798956031</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05602335578440939</v>
+        <v>0.04952382836403049</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>44</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3925185091.546167</v>
+        <v>3836503024.049092</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07789014261383596</v>
+        <v>0.09519932325416679</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02707112038336081</v>
+        <v>0.03893681446392334</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>44</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1571541469.814622</v>
+        <v>1658085678.432945</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1366660356988718</v>
+        <v>0.1508465961231017</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02924616819731417</v>
+        <v>0.03568127565451717</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3995267459.941914</v>
+        <v>3750259793.58291</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1376270897453049</v>
+        <v>0.147596372289697</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05133230969038197</v>
+        <v>0.04876938957930709</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16</v>
+      </c>
+      <c r="J50" t="n">
+        <v>43</v>
+      </c>
+      <c r="K50" t="n">
+        <v>183.0203212163184</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1442339453.184522</v>
+        <v>1349482687.82073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1702874139448464</v>
+        <v>0.1256287165444689</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04283420142993383</v>
+        <v>0.0406114437189414</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5042586203.636133</v>
+        <v>4379851370.535213</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09963835701644906</v>
+        <v>0.09082955553504159</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0522889340369415</v>
+        <v>0.04106842280541013</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3411180926.675788</v>
+        <v>2914155354.534739</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1802898280855904</v>
+        <v>0.1241339194634694</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03369799828120569</v>
+        <v>0.02351163224745538</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3783327099.138451</v>
+        <v>4609408577.303003</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1528936291829707</v>
+        <v>0.1306603140225513</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0437836984285916</v>
+        <v>0.04544660256272544</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>43</v>
+      </c>
+      <c r="K54" t="n">
+        <v>207.1697145654869</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4246566758.161444</v>
+        <v>3970284323.809548</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1844664028643501</v>
+        <v>0.1636958082204263</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01997224194795626</v>
+        <v>0.02890339145906112</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>21</v>
+      </c>
+      <c r="J55" t="n">
+        <v>43</v>
+      </c>
+      <c r="K55" t="n">
+        <v>178.1562115167652</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1143858586.31289</v>
+        <v>1544836703.903914</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1438257875779563</v>
+        <v>0.1443689523041354</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04307483860808189</v>
+        <v>0.03527993175404272</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4230144955.021362</v>
+        <v>3209351956.648829</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1759859242579041</v>
+        <v>0.1593816666124409</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02718456067098363</v>
+        <v>0.0190038975799508</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1429760587.175831</v>
+        <v>1327205448.247897</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1852701927577142</v>
+        <v>0.1647301976453105</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03244527692951115</v>
+        <v>0.02965972823873093</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4474044615.834967</v>
+        <v>3924632351.168685</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09298081325691784</v>
+        <v>0.1037755835723467</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03666159839303668</v>
+        <v>0.03114233445440876</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21</v>
+      </c>
+      <c r="J59" t="n">
+        <v>43</v>
+      </c>
+      <c r="K59" t="n">
+        <v>176.0685691692848</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2843573969.840456</v>
+        <v>3550960356.44545</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1800763458453559</v>
+        <v>0.1262316069564735</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02229707815994433</v>
+        <v>0.02615635779326421</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3339809087.370656</v>
+        <v>2801096490.519259</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1386289024274451</v>
+        <v>0.1456360165403132</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02872305817406699</v>
+        <v>0.02044780125448413</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1870955728.78048</v>
+        <v>1801650823.857677</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1593734387489599</v>
+        <v>0.1236913340086825</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04892737787665463</v>
+        <v>0.03253195499730534</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5156092026.743649</v>
+        <v>4775797440.303786</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07364059862579968</v>
+        <v>0.09327454594768245</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03305441942541049</v>
+        <v>0.04646339074394853</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>44</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3587847198.279965</v>
+        <v>5210763796.042285</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1402613264188785</v>
+        <v>0.1892833323723504</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02613320829166545</v>
+        <v>0.02158496749301493</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>43</v>
+      </c>
+      <c r="K64" t="n">
+        <v>198.3362494654305</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5992125260.751369</v>
+        <v>4016798388.661061</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1710502155427498</v>
+        <v>0.165397736420449</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0216367376049153</v>
+        <v>0.03039972322665994</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>36</v>
+      </c>
+      <c r="J65" t="n">
+        <v>44</v>
+      </c>
+      <c r="K65" t="n">
+        <v>212.2094205011236</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4051216171.715742</v>
+        <v>4404500297.643606</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1343542335283822</v>
+        <v>0.1063591058193961</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04276564286565508</v>
+        <v>0.03594280071595685</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>43</v>
+      </c>
+      <c r="K66" t="n">
+        <v>194.1805665280945</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2699878773.549523</v>
+        <v>3276233824.295858</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06680200437125493</v>
+        <v>0.06542671943001598</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03428047696839942</v>
+        <v>0.03947135254913284</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5614616358.781173</v>
+        <v>4509672379.519524</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09748565825497751</v>
+        <v>0.1171473688251024</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04024673513056869</v>
+        <v>0.05132773446576993</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>22</v>
+      </c>
+      <c r="J68" t="n">
+        <v>43</v>
+      </c>
+      <c r="K68" t="n">
+        <v>200.3125979600536</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1635215935.566026</v>
+        <v>2357582425.532686</v>
       </c>
       <c r="F69" t="n">
-        <v>0.122179015783855</v>
+        <v>0.1352179073846604</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04810966192784005</v>
+        <v>0.0531306471187025</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3056805862.536449</v>
+        <v>2577346640.717556</v>
       </c>
       <c r="F70" t="n">
-        <v>0.102182708542804</v>
+        <v>0.06527840413404441</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03607542611055248</v>
+        <v>0.04216226044071682</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5001738973.870411</v>
+        <v>3956509000.366958</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1425039404433412</v>
+        <v>0.1773623757077113</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02850799040128642</v>
+        <v>0.02700381641903841</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36</v>
+      </c>
+      <c r="J71" t="n">
+        <v>43</v>
+      </c>
+      <c r="K71" t="n">
+        <v>207.0725904645454</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1947463452.538463</v>
+        <v>2201412579.42798</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1028144477717993</v>
+        <v>0.1062048116674379</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04448637079547413</v>
+        <v>0.03212844995394001</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3020496075.755119</v>
+        <v>2435438919.791624</v>
       </c>
       <c r="F73" t="n">
-        <v>0.074528882066257</v>
+        <v>0.09605682654817384</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0331172988826166</v>
+        <v>0.0381163071593672</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3716356802.200638</v>
+        <v>3698536287.199959</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1659639851204717</v>
+        <v>0.1400207531851787</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03078092931126556</v>
+        <v>0.02508816710526082</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1727111616.87382</v>
+        <v>2218551339.973182</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1554769424494117</v>
+        <v>0.1519236741103371</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03152920426748389</v>
+        <v>0.03542031155950991</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4275418676.191047</v>
+        <v>4993164548.140139</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08848738514749176</v>
+        <v>0.07814110449218119</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03370217535310364</v>
+        <v>0.02570139921256968</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>43</v>
+      </c>
+      <c r="K76" t="n">
+        <v>169.3466430309728</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1894501840.054963</v>
+        <v>2242602414.693343</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1226580234574934</v>
+        <v>0.1551560139151828</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02824302659556027</v>
+        <v>0.02817561956495879</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4781136650.393315</v>
+        <v>3560915730.60631</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244178864043328</v>
+        <v>0.1355984003885863</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04456293541914061</v>
+        <v>0.05261100776196567</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>44</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1283166527.742802</v>
+        <v>1762991316.489246</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1111743406466607</v>
+        <v>0.1770989375015961</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02745443644771098</v>
+        <v>0.02925309201727135</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5051448659.521413</v>
+        <v>3465432589.017566</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07180388905119978</v>
+        <v>0.1097221824981626</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03619363030030101</v>
+        <v>0.02913255671062837</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" t="n">
+        <v>42</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3279518553.241244</v>
+        <v>4532696533.536772</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09112419894242038</v>
+        <v>0.1074501383858923</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02503577971260864</v>
+        <v>0.02181574941780895</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>19</v>
+      </c>
+      <c r="J81" t="n">
+        <v>44</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5096389511.505899</v>
+        <v>4678530914.111073</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1908096271275716</v>
+        <v>0.2091318399135443</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01867362811123926</v>
+        <v>0.02132045184589129</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+      <c r="J82" t="n">
+        <v>44</v>
+      </c>
+      <c r="K82" t="n">
+        <v>212.4027604133564</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2461984243.540131</v>
+        <v>2221209723.260785</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1539671738968659</v>
+        <v>0.09745390760422507</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02976474400277693</v>
+        <v>0.03279793790852722</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1664297043.039011</v>
+        <v>2481276473.144169</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08851798927863667</v>
+        <v>0.0940994992176679</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04026546511691965</v>
+        <v>0.03275152068956564</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2379060129.751857</v>
+        <v>3475559316.585503</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1777609569089601</v>
+        <v>0.1636870675420018</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05497506969537602</v>
+        <v>0.04793399651121898</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>43</v>
+      </c>
+      <c r="K85" t="n">
+        <v>167.1134155579211</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2736236195.596023</v>
+        <v>2190232173.777583</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1458255254744334</v>
+        <v>0.109107005101199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02741354527708187</v>
+        <v>0.02469349450852494</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1035173629.134548</v>
+        <v>911363183.054087</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1206075541632917</v>
+        <v>0.1798119354284659</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04295082888748467</v>
+        <v>0.03473918063049271</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2617537083.9987</v>
+        <v>3166301699.963939</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1615771093824055</v>
+        <v>0.1298089781215536</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02655970948241227</v>
+        <v>0.04005539790864256</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>42</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3442484638.937854</v>
+        <v>3079835267.395826</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1337871374557718</v>
+        <v>0.1112347171802973</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03087578067424993</v>
+        <v>0.03688842282466294</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1719324112.082624</v>
+        <v>1592349524.92483</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09887361123103872</v>
+        <v>0.1238114553384324</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05371157796831229</v>
+        <v>0.04327673522154691</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2078800154.338344</v>
+        <v>2060186555.172919</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1340096940216279</v>
+        <v>0.1455464112128064</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06128143842623509</v>
+        <v>0.04201321789991484</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2788899195.738416</v>
+        <v>2459904722.104814</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1036598873347656</v>
+        <v>0.07057760733331658</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04745869112429574</v>
+        <v>0.0371970520299457</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3323211961.149257</v>
+        <v>3844109877.480455</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1311750918949006</v>
+        <v>0.1069449019609191</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03437132895729967</v>
+        <v>0.05132867668705417</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>43</v>
+      </c>
+      <c r="K93" t="n">
+        <v>179.2822073073437</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2118998826.577252</v>
+        <v>2449413190.138174</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1147993540550211</v>
+        <v>0.1289742311289793</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02631844232200959</v>
+        <v>0.03745087641896887</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2655638112.466914</v>
+        <v>3039506105.919134</v>
       </c>
       <c r="F95" t="n">
-        <v>0.135288176917354</v>
+        <v>0.1022227592483887</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04093411411207745</v>
+        <v>0.04707696005215843</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1560214459.864687</v>
+        <v>1535545882.665486</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1359674644127059</v>
+        <v>0.13674898925884</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04669421998798383</v>
+        <v>0.03758957498259347</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5350574039.907534</v>
+        <v>4557667181.705788</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1520175194896596</v>
+        <v>0.1640511711144544</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02456920222637438</v>
+        <v>0.02921579514624513</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>21</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2573320339.751074</v>
+        <v>3444668756.75857</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09647396824513289</v>
+        <v>0.1175176929781929</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03098820831575128</v>
+        <v>0.02526434283267315</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3414825495.01143</v>
+        <v>3069624627.879964</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1253621170128575</v>
+        <v>0.1220497394187268</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03387468417663973</v>
+        <v>0.02648468592865046</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2928276664.14442</v>
+        <v>3350155543.199027</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1525839898839929</v>
+        <v>0.1727852549882741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02084958137964913</v>
+        <v>0.01974900671401791</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3187483029.490078</v>
+        <v>2272013402.595154</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2222473333621177</v>
+        <v>0.1630492557805459</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05522757869980201</v>
+        <v>0.05369475178666635</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
